--- a/poi-persistence/src/main/resources/poi.xlsx
+++ b/poi-persistence/src/main/resources/poi.xlsx
@@ -631,9 +631,6 @@
     <t>汽车服务;汽车配件销售;汽车配件销售</t>
   </si>
   <si>
-    <t>汽车服务;汽车养护/装饰;汽车养护</t>
-  </si>
-  <si>
     <t>汽车服务;汽车租赁;汽车租赁</t>
   </si>
   <si>
@@ -1003,9 +1000,6 @@
     <t>生活服务;售票处;飞机票代售点</t>
   </si>
   <si>
-    <t>生活服务;售票处;公交卡/月票代售点</t>
-  </si>
-  <si>
     <t>生活服务;售票处;公园景点售票处</t>
   </si>
   <si>
@@ -1748,6 +1742,14 @@
   </si>
   <si>
     <t>汽车服务;加油站;中国石油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车服务;汽车养护;汽车养护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活服务;售票处;公交卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2102,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="C434" sqref="C434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2115,62 +2118,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
@@ -2185,82 +2188,82 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
@@ -2285,7 +2288,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
@@ -2295,12 +2298,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
@@ -2325,7 +2328,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -2335,7 +2338,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
@@ -2375,12 +2378,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
@@ -2395,22 +2398,22 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
@@ -2425,7 +2428,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
@@ -2445,7 +2448,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
@@ -2455,7 +2458,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
@@ -2495,12 +2498,12 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
@@ -2510,7 +2513,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -2530,17 +2533,17 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
@@ -2550,12 +2553,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -2565,17 +2568,17 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
@@ -2600,47 +2603,47 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
@@ -2730,22 +2733,22 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
@@ -2755,7 +2758,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
@@ -2800,22 +2803,22 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
@@ -2825,7 +2828,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
@@ -2840,7 +2843,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
@@ -2860,7 +2863,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
@@ -2870,12 +2873,12 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
@@ -2885,7 +2888,7 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
@@ -2905,17 +2908,17 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
@@ -2950,47 +2953,47 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
@@ -3000,7 +3003,7 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
@@ -3010,27 +3013,27 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
@@ -3040,7 +3043,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
@@ -3095,7 +3098,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
@@ -3385,7 +3388,7 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
@@ -3615,7 +3618,7 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
@@ -3634,1223 +3637,1223 @@
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="1" t="s">
-        <v>205</v>
+      <c r="A305" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A429" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A430" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A431" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" s="7" t="s">
-        <v>329</v>
+      <c r="A438" s="8" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A445" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A446" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A447" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A448" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A455" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A457" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A459" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A460" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A461" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A462" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A500" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A503" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A515" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A541" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A542" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A544" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
